--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QPS-Basavanagudi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WCSA3\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBA4A6E-F5B2-4788-8955-500095A1B563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E518402-7C1B-4F53-976E-42A4507B1B94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{8CBD5C46-98AE-44C0-938D-F067F0526989}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>url</t>
   </si>
@@ -43,12 +43,16 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>Hello</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524A8A5C-AA95-4EF1-AFC1-C109C72F68AF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,6 +421,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -424,6 +431,11 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
